--- a/data/134/DEUSTATIS/Construction price indices by maintenance of residential buildings years.xlsx
+++ b/data/134/DEUSTATIS/Construction price indices by maintenance of residential buildings years.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="108">
   <si>
     <t>Construction price indices: Germany, years, indices
 including/excluding turnover tax, maintenance of residential
@@ -221,6 +221,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>Indices including turnover tax</t>
   </si>
   <si>
@@ -335,7 +338,7 @@
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:41:03</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:40:59</t>
   </si>
 </sst>
 </file>
@@ -900,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -1208,6 +1211,14 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -1732,12 +1743,20 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -2032,399 +2051,405 @@
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="true">
-      <c r="A5" t="s" s="151">
+      <c r="A5" t="s" s="153">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="152">
+      <c r="B5" t="s" s="154">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="153">
+      <c r="C5" t="s" s="155">
         <v>6</v>
       </c>
-      <c r="D5" t="s" s="154">
+      <c r="D5" t="s" s="156">
         <v>7</v>
       </c>
-      <c r="E5" t="s" s="155">
+      <c r="E5" t="s" s="157">
         <v>8</v>
       </c>
-      <c r="F5" t="s" s="156">
+      <c r="F5" t="s" s="158">
         <v>9</v>
       </c>
-      <c r="G5" t="s" s="157">
+      <c r="G5" t="s" s="159">
         <v>10</v>
       </c>
-      <c r="H5" t="s" s="158">
+      <c r="H5" t="s" s="160">
         <v>11</v>
       </c>
-      <c r="I5" t="s" s="159">
+      <c r="I5" t="s" s="161">
         <v>12</v>
       </c>
-      <c r="J5" t="s" s="160">
+      <c r="J5" t="s" s="162">
         <v>13</v>
       </c>
-      <c r="K5" t="s" s="161">
+      <c r="K5" t="s" s="163">
         <v>14</v>
       </c>
-      <c r="L5" t="s" s="162">
+      <c r="L5" t="s" s="164">
         <v>15</v>
       </c>
-      <c r="M5" t="s" s="163">
+      <c r="M5" t="s" s="165">
         <v>16</v>
       </c>
-      <c r="N5" t="s" s="164">
+      <c r="N5" t="s" s="166">
         <v>17</v>
       </c>
-      <c r="O5" t="s" s="165">
+      <c r="O5" t="s" s="167">
         <v>18</v>
       </c>
-      <c r="P5" t="s" s="166">
+      <c r="P5" t="s" s="168">
         <v>19</v>
       </c>
-      <c r="Q5" t="s" s="167">
+      <c r="Q5" t="s" s="169">
         <v>20</v>
       </c>
-      <c r="R5" t="s" s="168">
+      <c r="R5" t="s" s="170">
         <v>21</v>
       </c>
-      <c r="S5" t="s" s="169">
+      <c r="S5" t="s" s="171">
         <v>22</v>
       </c>
-      <c r="T5" t="s" s="170">
+      <c r="T5" t="s" s="172">
         <v>23</v>
       </c>
-      <c r="U5" t="s" s="171">
+      <c r="U5" t="s" s="173">
         <v>24</v>
       </c>
-      <c r="V5" t="s" s="172">
+      <c r="V5" t="s" s="174">
         <v>25</v>
       </c>
-      <c r="W5" t="s" s="173">
+      <c r="W5" t="s" s="175">
         <v>26</v>
       </c>
-      <c r="X5" t="s" s="174">
+      <c r="X5" t="s" s="176">
         <v>27</v>
       </c>
-      <c r="Y5" t="s" s="175">
+      <c r="Y5" t="s" s="177">
         <v>28</v>
       </c>
-      <c r="Z5" t="s" s="176">
+      <c r="Z5" t="s" s="178">
         <v>29</v>
       </c>
-      <c r="AA5" t="s" s="177">
+      <c r="AA5" t="s" s="179">
         <v>30</v>
       </c>
-      <c r="AB5" t="s" s="178">
+      <c r="AB5" t="s" s="180">
         <v>31</v>
       </c>
-      <c r="AC5" t="s" s="179">
+      <c r="AC5" t="s" s="181">
         <v>32</v>
       </c>
-      <c r="AD5" t="s" s="180">
+      <c r="AD5" t="s" s="182">
         <v>33</v>
       </c>
-      <c r="AE5" t="s" s="181">
+      <c r="AE5" t="s" s="183">
         <v>34</v>
       </c>
-      <c r="AF5" t="s" s="182">
+      <c r="AF5" t="s" s="184">
         <v>35</v>
       </c>
-      <c r="AG5" t="s" s="183">
+      <c r="AG5" t="s" s="185">
         <v>36</v>
       </c>
-      <c r="AH5" t="s" s="184">
+      <c r="AH5" t="s" s="186">
         <v>37</v>
       </c>
-      <c r="AI5" t="s" s="185">
+      <c r="AI5" t="s" s="187">
         <v>38</v>
       </c>
-      <c r="AJ5" t="s" s="186">
+      <c r="AJ5" t="s" s="188">
         <v>39</v>
       </c>
-      <c r="AK5" t="s" s="187">
+      <c r="AK5" t="s" s="189">
         <v>40</v>
       </c>
-      <c r="AL5" t="s" s="188">
+      <c r="AL5" t="s" s="190">
         <v>41</v>
       </c>
-      <c r="AM5" t="s" s="189">
+      <c r="AM5" t="s" s="191">
         <v>42</v>
       </c>
-      <c r="AN5" t="s" s="190">
+      <c r="AN5" t="s" s="192">
         <v>43</v>
       </c>
-      <c r="AO5" t="s" s="191">
+      <c r="AO5" t="s" s="193">
         <v>44</v>
       </c>
-      <c r="AP5" t="s" s="192">
+      <c r="AP5" t="s" s="194">
         <v>45</v>
       </c>
-      <c r="AQ5" t="s" s="193">
+      <c r="AQ5" t="s" s="195">
         <v>46</v>
       </c>
-      <c r="AR5" t="s" s="194">
+      <c r="AR5" t="s" s="196">
         <v>47</v>
       </c>
-      <c r="AS5" t="s" s="195">
+      <c r="AS5" t="s" s="197">
         <v>48</v>
       </c>
-      <c r="AT5" t="s" s="196">
+      <c r="AT5" t="s" s="198">
         <v>49</v>
       </c>
-      <c r="AU5" t="s" s="197">
+      <c r="AU5" t="s" s="199">
         <v>50</v>
       </c>
-      <c r="AV5" t="s" s="198">
+      <c r="AV5" t="s" s="200">
         <v>51</v>
       </c>
-      <c r="AW5" t="s" s="199">
+      <c r="AW5" t="s" s="201">
         <v>52</v>
       </c>
-      <c r="AX5" t="s" s="200">
+      <c r="AX5" t="s" s="202">
         <v>53</v>
       </c>
-      <c r="AY5" t="s" s="201">
+      <c r="AY5" t="s" s="203">
         <v>54</v>
       </c>
-      <c r="AZ5" t="s" s="202">
+      <c r="AZ5" t="s" s="204">
         <v>55</v>
       </c>
-      <c r="BA5" t="s" s="203">
+      <c r="BA5" t="s" s="205">
         <v>56</v>
       </c>
-      <c r="BB5" t="s" s="204">
+      <c r="BB5" t="s" s="206">
         <v>57</v>
       </c>
-      <c r="BC5" t="s" s="205">
+      <c r="BC5" t="s" s="207">
         <v>58</v>
       </c>
-      <c r="BD5" t="s" s="206">
+      <c r="BD5" t="s" s="208">
         <v>59</v>
       </c>
-      <c r="BE5" t="s" s="207">
+      <c r="BE5" t="s" s="209">
         <v>60</v>
       </c>
-      <c r="BF5" t="s" s="208">
+      <c r="BF5" t="s" s="210">
         <v>61</v>
       </c>
-      <c r="BG5" t="s" s="209">
+      <c r="BG5" t="s" s="211">
         <v>62</v>
       </c>
-      <c r="BH5" t="s" s="210">
+      <c r="BH5" t="s" s="212">
         <v>63</v>
       </c>
-      <c r="BI5" t="s" s="211">
+      <c r="BI5" t="s" s="213">
         <v>64</v>
       </c>
-      <c r="BJ5" t="s" s="212">
+      <c r="BJ5" t="s" s="214">
         <v>65</v>
       </c>
-      <c r="BK5" t="s" s="213">
+      <c r="BK5" t="s" s="215">
         <v>66</v>
       </c>
-      <c r="BL5" t="s" s="214">
+      <c r="BL5" t="s" s="216">
         <v>67</v>
+      </c>
+      <c r="BM5" t="s" s="217">
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="38.25" customHeight="true">
-      <c r="A6" s="215"/>
-      <c r="B6" t="s" s="216">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s" s="217">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s" s="218">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s" s="219">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s" s="220">
-        <v>68</v>
-      </c>
-      <c r="G6" t="s" s="221">
-        <v>68</v>
-      </c>
-      <c r="H6" t="s" s="222">
-        <v>68</v>
-      </c>
-      <c r="I6" t="s" s="223">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s" s="224">
-        <v>68</v>
-      </c>
-      <c r="K6" t="s" s="225">
-        <v>68</v>
-      </c>
-      <c r="L6" t="s" s="226">
-        <v>68</v>
-      </c>
-      <c r="M6" t="s" s="227">
-        <v>68</v>
-      </c>
-      <c r="N6" t="s" s="228">
-        <v>68</v>
-      </c>
-      <c r="O6" t="s" s="229">
-        <v>68</v>
-      </c>
-      <c r="P6" t="s" s="230">
-        <v>68</v>
-      </c>
-      <c r="Q6" t="s" s="231">
-        <v>68</v>
-      </c>
-      <c r="R6" t="s" s="232">
-        <v>68</v>
-      </c>
-      <c r="S6" t="s" s="233">
-        <v>68</v>
-      </c>
-      <c r="T6" t="s" s="234">
-        <v>68</v>
-      </c>
-      <c r="U6" t="s" s="235">
-        <v>68</v>
-      </c>
-      <c r="V6" t="s" s="236">
-        <v>68</v>
-      </c>
-      <c r="W6" t="s" s="237">
-        <v>68</v>
-      </c>
-      <c r="X6" t="s" s="238">
-        <v>68</v>
-      </c>
-      <c r="Y6" t="s" s="239">
-        <v>68</v>
-      </c>
-      <c r="Z6" t="s" s="240">
-        <v>68</v>
-      </c>
-      <c r="AA6" t="s" s="241">
-        <v>68</v>
-      </c>
-      <c r="AB6" t="s" s="242">
-        <v>68</v>
-      </c>
-      <c r="AC6" t="s" s="243">
-        <v>68</v>
-      </c>
-      <c r="AD6" t="s" s="244">
-        <v>68</v>
-      </c>
-      <c r="AE6" t="s" s="245">
-        <v>68</v>
-      </c>
-      <c r="AF6" t="s" s="246">
-        <v>68</v>
-      </c>
-      <c r="AG6" t="s" s="247">
-        <v>68</v>
-      </c>
-      <c r="AH6" t="s" s="248">
-        <v>68</v>
-      </c>
-      <c r="AI6" t="s" s="249">
-        <v>68</v>
-      </c>
-      <c r="AJ6" t="s" s="250">
-        <v>68</v>
-      </c>
-      <c r="AK6" t="s" s="251">
-        <v>68</v>
-      </c>
-      <c r="AL6" t="s" s="252">
-        <v>68</v>
-      </c>
-      <c r="AM6" t="s" s="253">
-        <v>68</v>
-      </c>
-      <c r="AN6" t="s" s="254">
-        <v>68</v>
-      </c>
-      <c r="AO6" t="s" s="255">
-        <v>68</v>
-      </c>
-      <c r="AP6" t="s" s="256">
-        <v>68</v>
-      </c>
-      <c r="AQ6" t="s" s="257">
-        <v>68</v>
-      </c>
-      <c r="AR6" t="s" s="258">
-        <v>68</v>
-      </c>
-      <c r="AS6" t="s" s="259">
-        <v>68</v>
-      </c>
-      <c r="AT6" t="s" s="260">
-        <v>68</v>
-      </c>
-      <c r="AU6" t="s" s="261">
-        <v>68</v>
-      </c>
-      <c r="AV6" t="s" s="262">
-        <v>68</v>
-      </c>
-      <c r="AW6" t="s" s="263">
-        <v>68</v>
-      </c>
-      <c r="AX6" t="s" s="264">
-        <v>68</v>
-      </c>
-      <c r="AY6" t="s" s="265">
-        <v>68</v>
-      </c>
-      <c r="AZ6" t="s" s="266">
-        <v>68</v>
-      </c>
-      <c r="BA6" t="s" s="267">
-        <v>68</v>
-      </c>
-      <c r="BB6" t="s" s="268">
-        <v>68</v>
-      </c>
-      <c r="BC6" t="s" s="269">
-        <v>68</v>
-      </c>
-      <c r="BD6" t="s" s="270">
-        <v>68</v>
-      </c>
-      <c r="BE6" t="s" s="271">
-        <v>68</v>
-      </c>
-      <c r="BF6" t="s" s="272">
-        <v>68</v>
-      </c>
-      <c r="BG6" t="s" s="273">
-        <v>68</v>
-      </c>
-      <c r="BH6" t="s" s="274">
-        <v>68</v>
-      </c>
-      <c r="BI6" t="s" s="275">
-        <v>68</v>
-      </c>
-      <c r="BJ6" t="s" s="276">
-        <v>68</v>
-      </c>
-      <c r="BK6" t="s" s="277">
-        <v>68</v>
-      </c>
-      <c r="BL6" t="s" s="278">
-        <v>68</v>
+      <c r="A6" s="218"/>
+      <c r="B6" t="s" s="219">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s" s="220">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s" s="221">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s" s="222">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s" s="223">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s" s="224">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s" s="225">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s" s="226">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s" s="227">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s" s="228">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s" s="229">
+        <v>69</v>
+      </c>
+      <c r="M6" t="s" s="230">
+        <v>69</v>
+      </c>
+      <c r="N6" t="s" s="231">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s" s="232">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s" s="233">
+        <v>69</v>
+      </c>
+      <c r="Q6" t="s" s="234">
+        <v>69</v>
+      </c>
+      <c r="R6" t="s" s="235">
+        <v>69</v>
+      </c>
+      <c r="S6" t="s" s="236">
+        <v>69</v>
+      </c>
+      <c r="T6" t="s" s="237">
+        <v>69</v>
+      </c>
+      <c r="U6" t="s" s="238">
+        <v>69</v>
+      </c>
+      <c r="V6" t="s" s="239">
+        <v>69</v>
+      </c>
+      <c r="W6" t="s" s="240">
+        <v>69</v>
+      </c>
+      <c r="X6" t="s" s="241">
+        <v>69</v>
+      </c>
+      <c r="Y6" t="s" s="242">
+        <v>69</v>
+      </c>
+      <c r="Z6" t="s" s="243">
+        <v>69</v>
+      </c>
+      <c r="AA6" t="s" s="244">
+        <v>69</v>
+      </c>
+      <c r="AB6" t="s" s="245">
+        <v>69</v>
+      </c>
+      <c r="AC6" t="s" s="246">
+        <v>69</v>
+      </c>
+      <c r="AD6" t="s" s="247">
+        <v>69</v>
+      </c>
+      <c r="AE6" t="s" s="248">
+        <v>69</v>
+      </c>
+      <c r="AF6" t="s" s="249">
+        <v>69</v>
+      </c>
+      <c r="AG6" t="s" s="250">
+        <v>69</v>
+      </c>
+      <c r="AH6" t="s" s="251">
+        <v>69</v>
+      </c>
+      <c r="AI6" t="s" s="252">
+        <v>69</v>
+      </c>
+      <c r="AJ6" t="s" s="253">
+        <v>69</v>
+      </c>
+      <c r="AK6" t="s" s="254">
+        <v>69</v>
+      </c>
+      <c r="AL6" t="s" s="255">
+        <v>69</v>
+      </c>
+      <c r="AM6" t="s" s="256">
+        <v>69</v>
+      </c>
+      <c r="AN6" t="s" s="257">
+        <v>69</v>
+      </c>
+      <c r="AO6" t="s" s="258">
+        <v>69</v>
+      </c>
+      <c r="AP6" t="s" s="259">
+        <v>69</v>
+      </c>
+      <c r="AQ6" t="s" s="260">
+        <v>69</v>
+      </c>
+      <c r="AR6" t="s" s="261">
+        <v>69</v>
+      </c>
+      <c r="AS6" t="s" s="262">
+        <v>69</v>
+      </c>
+      <c r="AT6" t="s" s="263">
+        <v>69</v>
+      </c>
+      <c r="AU6" t="s" s="264">
+        <v>69</v>
+      </c>
+      <c r="AV6" t="s" s="265">
+        <v>69</v>
+      </c>
+      <c r="AW6" t="s" s="266">
+        <v>69</v>
+      </c>
+      <c r="AX6" t="s" s="267">
+        <v>69</v>
+      </c>
+      <c r="AY6" t="s" s="268">
+        <v>69</v>
+      </c>
+      <c r="AZ6" t="s" s="269">
+        <v>69</v>
+      </c>
+      <c r="BA6" t="s" s="270">
+        <v>69</v>
+      </c>
+      <c r="BB6" t="s" s="271">
+        <v>69</v>
+      </c>
+      <c r="BC6" t="s" s="272">
+        <v>69</v>
+      </c>
+      <c r="BD6" t="s" s="273">
+        <v>69</v>
+      </c>
+      <c r="BE6" t="s" s="274">
+        <v>69</v>
+      </c>
+      <c r="BF6" t="s" s="275">
+        <v>69</v>
+      </c>
+      <c r="BG6" t="s" s="276">
+        <v>69</v>
+      </c>
+      <c r="BH6" t="s" s="277">
+        <v>69</v>
+      </c>
+      <c r="BI6" t="s" s="278">
+        <v>69</v>
+      </c>
+      <c r="BJ6" t="s" s="279">
+        <v>69</v>
+      </c>
+      <c r="BK6" t="s" s="280">
+        <v>69</v>
+      </c>
+      <c r="BL6" t="s" s="281">
+        <v>69</v>
+      </c>
+      <c r="BM6" t="s" s="282">
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="true">
       <c r="A7" t="s" s="14">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="13">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" t="n" s="10">
         <v>12.1</v>
@@ -2614,182 +2639,185 @@
       </c>
       <c r="BL8" t="n" s="10">
         <v>116.9</v>
+      </c>
+      <c r="BM8" t="n" s="10">
+        <v>127.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="13">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF9" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG9" t="n" s="10">
         <v>100.0</v>
@@ -2808,182 +2836,185 @@
       </c>
       <c r="BL9" t="n" s="10">
         <v>122.4</v>
+      </c>
+      <c r="BM9" t="n" s="10">
+        <v>129.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="13">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF10" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG10" t="n" s="10">
         <v>100.0</v>
@@ -3002,110 +3033,113 @@
       </c>
       <c r="BL10" t="n" s="10">
         <v>118.3</v>
+      </c>
+      <c r="BM10" t="n" s="10">
+        <v>131.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="13">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="n" s="10">
         <v>76.5</v>
@@ -3196,182 +3230,185 @@
       </c>
       <c r="BL11" t="n" s="10">
         <v>116.2</v>
+      </c>
+      <c r="BM11" t="n" s="10">
+        <v>124.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="13">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF12" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG12" t="n" s="10">
         <v>100.0</v>
@@ -3390,11 +3427,14 @@
       </c>
       <c r="BL12" t="n" s="10">
         <v>116.3</v>
+      </c>
+      <c r="BM12" t="n" s="10">
+        <v>124.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="13">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>9.6</v>
@@ -3584,182 +3624,185 @@
       </c>
       <c r="BL13" t="n" s="10">
         <v>117.4</v>
+      </c>
+      <c r="BM13" t="n" s="10">
+        <v>142.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="13">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF14" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG14" t="n" s="10">
         <v>100.0</v>
@@ -3778,182 +3821,185 @@
       </c>
       <c r="BL14" t="n" s="10">
         <v>109.2</v>
+      </c>
+      <c r="BM14" t="n" s="10">
+        <v>118.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG15" t="n" s="10">
         <v>100.0</v>
@@ -3972,11 +4018,14 @@
       </c>
       <c r="BL15" t="n" s="10">
         <v>118.8</v>
+      </c>
+      <c r="BM15" t="n" s="10">
+        <v>128.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="13">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" t="n" s="10">
         <v>7.8</v>
@@ -4166,11 +4215,14 @@
       </c>
       <c r="BL16" t="n" s="10">
         <v>118.6</v>
+      </c>
+      <c r="BM16" t="n" s="10">
+        <v>132.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="13">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>8.5</v>
@@ -4360,182 +4412,185 @@
       </c>
       <c r="BL17" t="n" s="10">
         <v>117.8</v>
+      </c>
+      <c r="BM17" t="n" s="10">
+        <v>129.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="13">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF18" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG18" t="n" s="10">
         <v>100.0</v>
@@ -4554,182 +4609,185 @@
       </c>
       <c r="BL18" t="n" s="10">
         <v>121.8</v>
+      </c>
+      <c r="BM18" t="n" s="10">
+        <v>128.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="13">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG19" t="n" s="10">
         <v>100.0</v>
@@ -4748,182 +4806,185 @@
       </c>
       <c r="BL19" t="n" s="10">
         <v>113.7</v>
+      </c>
+      <c r="BM19" t="n" s="10">
+        <v>120.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="13">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF20" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG20" t="n" s="10">
         <v>100.0</v>
@@ -4942,11 +5003,14 @@
       </c>
       <c r="BL20" t="n" s="10">
         <v>113.7</v>
+      </c>
+      <c r="BM20" t="n" s="10">
+        <v>121.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="13">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>10.5</v>
@@ -5136,182 +5200,185 @@
       </c>
       <c r="BL21" t="n" s="10">
         <v>114.9</v>
+      </c>
+      <c r="BM21" t="n" s="10">
+        <v>122.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="13">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF22" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG22" t="n" s="10">
         <v>100.0</v>
@@ -5330,152 +5397,155 @@
       </c>
       <c r="BL22" t="n" s="10">
         <v>116.6</v>
+      </c>
+      <c r="BM22" t="n" s="10">
+        <v>125.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="13">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV23" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW23" t="n" s="10">
         <v>80.1</v>
@@ -5524,182 +5594,185 @@
       </c>
       <c r="BL23" t="n" s="10">
         <v>115.3</v>
+      </c>
+      <c r="BM23" t="n" s="10">
+        <v>124.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="13">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF24" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG24" t="n" s="10">
         <v>100.0</v>
@@ -5718,182 +5791,185 @@
       </c>
       <c r="BL24" t="n" s="10">
         <v>116.1</v>
+      </c>
+      <c r="BM24" t="n" s="10">
+        <v>127.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="13">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF25" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG25" t="n" s="10">
         <v>100.0</v>
@@ -5912,182 +5988,185 @@
       </c>
       <c r="BL25" t="n" s="10">
         <v>115.3</v>
+      </c>
+      <c r="BM25" t="n" s="10">
+        <v>121.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="13">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF26" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG26" t="n" s="10">
         <v>100.0</v>
@@ -6106,11 +6185,14 @@
       </c>
       <c r="BL26" t="n" s="10">
         <v>112.8</v>
+      </c>
+      <c r="BM26" t="n" s="10">
+        <v>120.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="13">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B27" t="n" s="10">
         <v>10.1</v>
@@ -6300,11 +6382,14 @@
       </c>
       <c r="BL27" t="n" s="10">
         <v>113.0</v>
+      </c>
+      <c r="BM27" t="n" s="10">
+        <v>123.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="13">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" t="n" s="10">
         <v>22.9</v>
@@ -6494,110 +6579,113 @@
       </c>
       <c r="BL28" t="n" s="10">
         <v>114.2</v>
+      </c>
+      <c r="BM28" t="n" s="10">
+        <v>123.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="13">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI29" t="n" s="10">
         <v>50.9</v>
@@ -6688,182 +6776,185 @@
       </c>
       <c r="BL29" t="n" s="10">
         <v>117.4</v>
+      </c>
+      <c r="BM29" t="n" s="10">
+        <v>130.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="13">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG30" t="n" s="10">
         <v>100.0</v>
@@ -6882,11 +6973,14 @@
       </c>
       <c r="BL30" t="n" s="10">
         <v>111.3</v>
+      </c>
+      <c r="BM30" t="n" s="10">
+        <v>120.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="13">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" t="n" s="10">
         <v>10.5</v>
@@ -7076,11 +7170,14 @@
       </c>
       <c r="BL31" t="n" s="10">
         <v>115.2</v>
+      </c>
+      <c r="BM31" t="n" s="10">
+        <v>122.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="13">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B32" t="n" s="10">
         <v>18.6</v>
@@ -7270,346 +7367,352 @@
       </c>
       <c r="BL32" t="n" s="10">
         <v>111.1</v>
+      </c>
+      <c r="BM32" t="n" s="10">
+        <v>117.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="13">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BH33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BI33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BJ33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BK33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BL33" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="BM33" t="s" s="10">
+        <v>73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="13">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW34" t="n" s="10">
         <v>73.0</v>
@@ -7658,11 +7761,14 @@
       </c>
       <c r="BL34" t="n" s="10">
         <v>115.5</v>
+      </c>
+      <c r="BM34" t="n" s="10">
+        <v>125.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="13">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" t="n" s="10">
         <v>9.7</v>
@@ -7852,11 +7958,14 @@
       </c>
       <c r="BL35" t="n" s="10">
         <v>117.4</v>
+      </c>
+      <c r="BM35" t="n" s="10">
+        <v>127.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="13">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B36" t="n" s="10">
         <v>10.4</v>
@@ -8046,11 +8155,14 @@
       </c>
       <c r="BL36" t="n" s="10">
         <v>119.3</v>
+      </c>
+      <c r="BM36" t="n" s="10">
+        <v>130.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="13">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>14.4</v>
@@ -8240,182 +8352,185 @@
       </c>
       <c r="BL37" t="n" s="10">
         <v>122.0</v>
+      </c>
+      <c r="BM37" t="n" s="10">
+        <v>132.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="13">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG38" t="n" s="10">
         <v>100.0</v>
@@ -8434,152 +8549,155 @@
       </c>
       <c r="BL38" t="n" s="10">
         <v>126.4</v>
+      </c>
+      <c r="BM38" t="n" s="10">
+        <v>136.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="13">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV39" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW39" t="n" s="10">
         <v>76.6</v>
@@ -8628,182 +8746,185 @@
       </c>
       <c r="BL39" t="n" s="10">
         <v>113.7</v>
+      </c>
+      <c r="BM39" t="n" s="10">
+        <v>121.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="13">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BA40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF40" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BG40" t="n" s="10">
         <v>100.0</v>
@@ -8822,35 +8943,38 @@
       </c>
       <c r="BL40" t="n" s="10">
         <v>124.6</v>
+      </c>
+      <c r="BM40" t="n" s="10">
+        <v>137.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:BL2"/>
-    <mergeCell ref="A3:BL3"/>
-    <mergeCell ref="A4:BL4"/>
+    <mergeCell ref="A2:BM2"/>
+    <mergeCell ref="A3:BM3"/>
+    <mergeCell ref="A4:BM4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:BL7"/>
-    <mergeCell ref="A1:BL1"/>
+    <mergeCell ref="A7:BM7"/>
+    <mergeCell ref="A1:BM1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:41:09&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:41:05&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>